--- a/RMPP/RMPP_Unit08_Exe8.1B.xlsx
+++ b/RMPP/RMPP_Unit08_Exe8.1B.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E97877B07B7ED363510809F9ECD01DE7A7B0230E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_E97877B07B7ED363510809F9ECD01DE7A7B0230E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37CA42B-4B6C-4B2C-8CDC-BE536225062D}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="1725" windowWidth="22815" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="11">
   <si>
     <t>Diet</t>
   </si>
@@ -56,6 +61,12 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>This analysis compares two weight-reduction diets, Diet A and Diet B, each tested on 50 participants. Diet A’s average weight loss is around 5.341 (with a standard deviation of about 2.536), whereas Diet B’s average weight loss is about 3.710 (with a standard deviation of roughly 2.769). This suggests that, on average, Diet A leads to greater weight loss than Diet B. Therefore, Diet A appears more effective for weight reduction than Diet B.</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -81,6 +92,11 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -106,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +142,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,10 +164,77 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>494636</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA49CE9-77EB-F8AC-7D1C-CB11DF742F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="85725"/>
+          <a:ext cx="5314286" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,9 +272,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,26 +307,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,26 +342,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,13 +518,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -486,7 +545,7 @@
         <v>3.7090000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -504,7 +563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -519,7 +578,7 @@
         <v>5.3411999999999988</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -534,7 +593,7 @@
         <v>2.5356026132351492</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -542,7 +601,7 @@
         <v>9.077</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +609,7 @@
         <v>6.4130000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -558,7 +617,7 @@
         <v>5.8769999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -566,7 +625,7 @@
         <v>2.5720000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -574,7 +633,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -582,7 +641,7 @@
         <v>6.8810000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -590,7 +649,7 @@
         <v>7.2649999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -598,7 +657,7 @@
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -606,7 +665,7 @@
         <v>3.7549999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -614,7 +673,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -622,7 +681,7 @@
         <v>7.032</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -630,7 +689,7 @@
         <v>9.0519999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -638,7 +697,7 @@
         <v>10.061999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -646,7 +705,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -654,7 +713,7 @@
         <v>6.4489999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -662,7 +721,7 @@
         <v>9.0190000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -670,7 +729,7 @@
         <v>-1.7150000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -683,9 +742,12 @@
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="5">
+        <f>COUNT(B52:B101)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -695,9 +757,12 @@
       <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="6">
+        <f>AVERAGE(B52:B101)</f>
+        <v>3.709960000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -707,9 +772,12 @@
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="6">
+        <f>STDEV(B52:B101)</f>
+        <v>2.7690419986349206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -717,7 +785,7 @@
         <v>2.1280000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -725,7 +793,7 @@
         <v>6.968</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -733,55 +801,120 @@
         <v>4.8529999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="3">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="D29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="D30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="3">
         <v>3.746</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="3">
         <v>7.0330000000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="3">
         <v>5.0330000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="3">
         <v>5.569</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -789,7 +922,7 @@
         <v>6.7119999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -797,7 +930,7 @@
         <v>3.6629999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -805,7 +938,7 @@
         <v>2.7410000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -813,7 +946,7 @@
         <v>6.2560000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -821,7 +954,7 @@
         <v>5.3490000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -829,7 +962,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -837,7 +970,7 @@
         <v>5.4450000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -845,7 +978,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -853,7 +986,7 @@
         <v>3.613</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -861,7 +994,7 @@
         <v>7.5679999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -869,7 +1002,7 @@
         <v>5.8609999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -877,7 +1010,7 @@
         <v>4.157</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -885,7 +1018,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -893,7 +1026,7 @@
         <v>4.4409999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -901,7 +1034,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -909,7 +1042,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -917,7 +1050,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -925,7 +1058,7 @@
         <v>-1.087</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -933,7 +1066,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -941,7 +1074,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
@@ -949,7 +1082,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -957,7 +1090,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
@@ -965,7 +1098,7 @@
         <v>3.089</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -973,7 +1106,7 @@
         <v>4.008</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -981,7 +1114,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -989,7 +1122,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -997,7 +1130,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1138,7 @@
         <v>-4.1479999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1146,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -1021,7 +1154,7 @@
         <v>2.8650000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1162,7 @@
         <v>4.3689999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1170,7 @@
         <v>6.3369999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1178,7 @@
         <v>6.3079999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1186,7 @@
         <v>3.4940000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1194,7 @@
         <v>10.539</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1202,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1210,7 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1218,7 @@
         <v>5.4850000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1226,7 @@
         <v>-1.8939999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1234,7 @@
         <v>8.016</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1242,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1250,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1258,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1266,7 @@
         <v>7.7270000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1274,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1282,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1290,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1298,7 @@
         <v>4.9850000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1306,7 @@
         <v>5.1589999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1314,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1322,7 @@
         <v>4.9340000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1330,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
@@ -1205,7 +1338,7 @@
         <v>5.5979999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1346,7 @@
         <v>2.1619999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1354,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1362,7 @@
         <v>7.0460000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1370,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
@@ -1245,7 +1378,7 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1386,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1394,7 @@
         <v>2.145</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
@@ -1269,7 +1402,7 @@
         <v>8.4350000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1410,7 @@
         <v>6.0990000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1418,7 @@
         <v>3.972</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1426,7 @@
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1434,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +1442,7 @@
         <v>7.0129999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>8</v>
       </c>
@@ -1318,9 +1451,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D30:N34"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1330,7 +1468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1344,7 +1482,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
